--- a/1лаба/phi_quan.xlsx
+++ b/1лаба/phi_quan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Учёба\7 семестр\Анализ нечисловых данных\static-analysis-of-non-numeric-data\1лаба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158BF5A5-929F-4EB8-8B9C-0CD3AB811682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635037C8-70CA-4E1C-B554-E63BC4E6E26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,34 +473,34 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2">
-        <v>0.64902894731081351</v>
+        <v>0.35644258436627779</v>
       </c>
       <c r="D2" s="2">
-        <v>0.44202476649423511</v>
+        <v>0.1215794219432525</v>
       </c>
       <c r="E2" s="2">
-        <v>0.44202476649423511</v>
+        <v>0.1215794219432525</v>
       </c>
       <c r="F2" s="2">
-        <v>0.81637875742390953</v>
+        <v>0.33650683578527613</v>
       </c>
       <c r="G2" s="2">
-        <v>0.38790778781009838</v>
+        <v>0.20745283283450089</v>
       </c>
       <c r="H2" s="2">
-        <v>0.21530403731150691</v>
+        <v>0.15372724811284039</v>
       </c>
       <c r="I2" s="2">
-        <v>0.44858808840201297</v>
+        <v>9.87470363277414E-2</v>
       </c>
       <c r="J2" s="2">
-        <v>0.67070837067822853</v>
+        <v>0.37463382774968751</v>
       </c>
       <c r="K2" s="2">
-        <v>0.26737960950666301</v>
+        <v>0.143319093720982</v>
       </c>
       <c r="L2" s="2">
-        <v>0.26696141303532173</v>
+        <v>0.1915259226082294</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -508,35 +508,35 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>0.6490125430717385</v>
+        <v>0.35644258436627779</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2">
-        <v>0.48599712060931111</v>
+        <v>0.15735187443825169</v>
       </c>
       <c r="E3" s="2">
-        <v>0.48599712060931111</v>
+        <v>0.15735187443825169</v>
       </c>
       <c r="F3" s="2">
-        <v>0.84301673708229763</v>
+        <v>0.37069171320516359</v>
       </c>
       <c r="G3" s="2">
-        <v>0.43268301423805211</v>
+        <v>0.23608375663654499</v>
       </c>
       <c r="H3" s="2">
-        <v>0.1430958406900085</v>
+        <v>0.1014920194795651</v>
       </c>
       <c r="I3" s="2">
-        <v>0.5433039866559205</v>
+        <v>0.16049486207076349</v>
       </c>
       <c r="J3" s="2">
-        <v>0.63484126982843436</v>
+        <v>0.34463060861198891</v>
       </c>
       <c r="K3" s="2">
-        <v>0.29338240694636247</v>
+        <v>0.1583314278170338</v>
       </c>
       <c r="L3" s="2">
-        <v>0.35349643337977998</v>
+        <v>0.25729556659894259</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -544,35 +544,35 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>0.26417624861750799</v>
+        <v>0.1215794219432525</v>
       </c>
       <c r="C4" s="2">
-        <v>0.33565791084279972</v>
+        <v>0.15735187443825169</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2">
-        <v>0.93222378716277998</v>
+        <v>0.81649658092772603</v>
       </c>
       <c r="F4" s="2">
-        <v>0.75551963110445619</v>
+        <v>0.27567209219765942</v>
       </c>
       <c r="G4" s="2">
-        <v>0.28656408028560748</v>
+        <v>0.14784036169665951</v>
       </c>
       <c r="H4" s="2">
-        <v>7.6442757605755599E-2</v>
+        <v>5.4015866215578148E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>0.53682673375789813</v>
+        <v>0.15553071563792609</v>
       </c>
       <c r="J4" s="2">
-        <v>0.44474655670377988</v>
+        <v>0.2165373412511977</v>
       </c>
       <c r="K4" s="2">
-        <v>0.2165889849757984</v>
+        <v>0.11478638882657941</v>
       </c>
       <c r="L4" s="2">
-        <v>0.27009716413764412</v>
+        <v>0.19386220150209199</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -580,35 +580,35 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>0.26417624861750799</v>
+        <v>0.1215794219432525</v>
       </c>
       <c r="C5" s="2">
-        <v>0.33565791084279972</v>
+        <v>0.15735187443825169</v>
       </c>
       <c r="D5" s="2">
-        <v>0.93222378716277998</v>
+        <v>0.81649658092772603</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2">
-        <v>0.75551963110445619</v>
+        <v>0.27567209219765942</v>
       </c>
       <c r="G5" s="2">
-        <v>0.28656408028560748</v>
+        <v>0.14784036169665951</v>
       </c>
       <c r="H5" s="2">
-        <v>7.6442757605755599E-2</v>
+        <v>5.4015866215578148E-2</v>
       </c>
       <c r="I5" s="2">
-        <v>0.53682673375789813</v>
+        <v>0.15553071563792609</v>
       </c>
       <c r="J5" s="2">
-        <v>0.44474655670377988</v>
+        <v>0.2165373412511977</v>
       </c>
       <c r="K5" s="2">
-        <v>0.2165889849757984</v>
+        <v>0.11478638882657941</v>
       </c>
       <c r="L5" s="2">
-        <v>0.27009716413764412</v>
+        <v>0.19386220150209199</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -616,35 +616,35 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.62425733480195089</v>
+        <v>0.33650683578527613</v>
       </c>
       <c r="C6" s="2">
-        <v>0.66588522691823016</v>
+        <v>0.3706917132051637</v>
       </c>
       <c r="D6" s="2">
-        <v>0.60452882742730785</v>
+        <v>0.27567209219765942</v>
       </c>
       <c r="E6" s="2">
-        <v>0.60452882742730785</v>
+        <v>0.27567209219765942</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="2">
-        <v>0.52499967002399284</v>
+        <v>0.30125602421544401</v>
       </c>
       <c r="H6" s="2">
-        <v>0.3028152405091572</v>
+        <v>0.21879534394700459</v>
       </c>
       <c r="I6" s="2">
-        <v>0.68446464015519826</v>
+        <v>0.30345194524618518</v>
       </c>
       <c r="J6" s="2">
-        <v>0.70446384146703067</v>
+        <v>0.40545589754562678</v>
       </c>
       <c r="K6" s="2">
-        <v>0.37866270862269558</v>
+        <v>0.21003425752256591</v>
       </c>
       <c r="L6" s="2">
-        <v>0.50333647580280638</v>
+        <v>0.37986029405528998</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -652,35 +652,35 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>0.42848019858787573</v>
+        <v>0.20745283283450089</v>
       </c>
       <c r="C7" s="2">
-        <v>0.4774009320940788</v>
+        <v>0.23608375663654491</v>
       </c>
       <c r="D7" s="2">
-        <v>0.4749120597849516</v>
+        <v>0.14784036169665951</v>
       </c>
       <c r="E7" s="2">
-        <v>0.4749120597849516</v>
+        <v>0.14784036169665951</v>
       </c>
       <c r="F7" s="2">
-        <v>0.78352373865796188</v>
+        <v>0.30125602421544401</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2">
-        <v>0.1019553428950125</v>
+        <v>7.2126952809080894E-2</v>
       </c>
       <c r="I7" s="2">
-        <v>0.5716695759573277</v>
+        <v>0.18363313056017919</v>
       </c>
       <c r="J7" s="2">
-        <v>0.38851251583389412</v>
+        <v>0.18506671476692849</v>
       </c>
       <c r="K7" s="2">
-        <v>0.60431575258151626</v>
+        <v>0.37672723661830509</v>
       </c>
       <c r="L7" s="2">
-        <v>0.57203249526295319</v>
+        <v>0.44130874374178108</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -688,35 +688,35 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0.32858149672800918</v>
+        <v>0.15372724811284039</v>
       </c>
       <c r="C8" s="2">
-        <v>0.22243471248196789</v>
+        <v>0.1014920194795651</v>
       </c>
       <c r="D8" s="2">
-        <v>0.31494023558906248</v>
+        <v>5.4015866215578148E-2</v>
       </c>
       <c r="E8" s="2">
-        <v>0.31494023558906248</v>
+        <v>5.4015866215578148E-2</v>
       </c>
       <c r="F8" s="2">
-        <v>0.67723722675425413</v>
+        <v>0.2187953439470047</v>
       </c>
       <c r="G8" s="2">
-        <v>0.14418909930014809</v>
+        <v>7.2126952809080894E-2</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="2">
-        <v>0.31215767045834242</v>
+        <v>4.6872401464589722E-2</v>
       </c>
       <c r="J8" s="2">
-        <v>0.41907659581181927</v>
+        <v>0.20191473341694821</v>
       </c>
       <c r="K8" s="2">
-        <v>0.1221857925152227</v>
+        <v>6.3824602464525815E-2</v>
       </c>
       <c r="L8" s="2">
-        <v>4.590872853857484E-2</v>
+        <v>3.2347663221880887E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -724,35 +724,35 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.21663277192836519</v>
+        <v>9.87470363277414E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>0.34174139136254122</v>
+        <v>0.16049486207076349</v>
       </c>
       <c r="D9" s="2">
-        <v>0.48390195456877239</v>
+        <v>0.15553071563792609</v>
       </c>
       <c r="E9" s="2">
-        <v>0.48390195456877239</v>
+        <v>0.15553071563792609</v>
       </c>
       <c r="F9" s="2">
-        <v>0.78575325940531615</v>
+        <v>0.30345194524618518</v>
       </c>
       <c r="G9" s="2">
-        <v>0.348698234423308</v>
+        <v>0.18363313056017919</v>
       </c>
       <c r="H9" s="2">
-        <v>6.6357650880520161E-2</v>
+        <v>4.6872401464589708E-2</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="2">
-        <v>0.28707335700523212</v>
+        <v>0.13265661028466719</v>
       </c>
       <c r="K9" s="2">
-        <v>0.41762057152594068</v>
+        <v>0.2352102185465888</v>
       </c>
       <c r="L9" s="2">
-        <v>0.15531642068901819</v>
+        <v>0.1100599483474779</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -760,35 +760,35 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.67041314744885827</v>
+        <v>0.37463382774968762</v>
       </c>
       <c r="C10" s="2">
-        <v>0.63452963223970804</v>
+        <v>0.34463060861198902</v>
       </c>
       <c r="D10" s="2">
-        <v>0.54886892004335053</v>
+        <v>0.2165373412511977</v>
       </c>
       <c r="E10" s="2">
-        <v>0.54886892004335053</v>
+        <v>0.2165373412511977</v>
       </c>
       <c r="F10" s="2">
-        <v>0.86583425775310829</v>
+        <v>0.40545589754562678</v>
       </c>
       <c r="G10" s="2">
-        <v>0.35110754056279969</v>
+        <v>0.18506671476692849</v>
       </c>
       <c r="H10" s="2">
-        <v>0.28041865896675511</v>
+        <v>0.20191473341694821</v>
       </c>
       <c r="I10" s="2">
-        <v>0.50484112998959563</v>
+        <v>0.13265661028466719</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="2">
-        <v>0.26552429792770871</v>
+        <v>0.1422592586217499</v>
       </c>
       <c r="L10" s="2">
-        <v>0.3421584136634665</v>
+        <v>0.2485094723131987</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -796,35 +796,35 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.30808061801036801</v>
+        <v>0.143319093720982</v>
       </c>
       <c r="C11" s="2">
-        <v>0.33755745921908342</v>
+        <v>0.1583314278170338</v>
       </c>
       <c r="D11" s="2">
-        <v>0.43278265211165667</v>
+        <v>0.11478638882657941</v>
       </c>
       <c r="E11" s="2">
-        <v>0.43278265211165667</v>
+        <v>0.11478638882657941</v>
       </c>
       <c r="F11" s="2">
-        <v>0.66281346379576667</v>
+        <v>0.21003425752256591</v>
       </c>
       <c r="G11" s="2">
-        <v>0.61618264873337925</v>
+        <v>0.37672723661830509</v>
       </c>
       <c r="H11" s="2">
-        <v>9.0271089612494887E-2</v>
+        <v>6.3824602464525815E-2</v>
       </c>
       <c r="I11" s="2">
-        <v>0.62611683934809104</v>
+        <v>0.2352102185465888</v>
       </c>
       <c r="J11" s="2">
-        <v>0.30633689285224192</v>
+        <v>0.1422592586217499</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="2">
-        <v>0.4923156696284916</v>
+        <v>0.37035909300611042</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -832,34 +832,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.39994531461400101</v>
+        <v>0.1915259226082294</v>
       </c>
       <c r="C12" s="2">
-        <v>0.51160853380844951</v>
+        <v>0.25729556659894259</v>
       </c>
       <c r="D12" s="2">
-        <v>0.52580986586016143</v>
+        <v>0.19386220150209199</v>
       </c>
       <c r="E12" s="2">
-        <v>0.52580986586016143</v>
+        <v>0.19386220150209199</v>
       </c>
       <c r="F12" s="2">
-        <v>0.84941705155420888</v>
+        <v>0.37986029405528998</v>
       </c>
       <c r="G12" s="2">
-        <v>0.68246986897347461</v>
+        <v>0.44130874374178108</v>
       </c>
       <c r="H12" s="2">
-        <v>4.5821625973296892E-2</v>
+        <v>3.2347663221880887E-2</v>
       </c>
       <c r="I12" s="2">
-        <v>0.46886656231434598</v>
+        <v>0.1100599483474779</v>
       </c>
       <c r="J12" s="2">
-        <v>0.4980357228879323</v>
+        <v>0.2485094723131987</v>
       </c>
       <c r="K12" s="2">
-        <v>0.59704822915064815</v>
+        <v>0.37035909300611042</v>
       </c>
       <c r="L12" s="3"/>
     </row>

--- a/1лаба/phi_quan.xlsx
+++ b/1лаба/phi_quan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Учёба\7 семестр\Анализ нечисловых данных\static-analysis-of-non-numeric-data\1лаба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635037C8-70CA-4E1C-B554-E63BC4E6E26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD94CE24-C853-4EF8-8009-C353D261AD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
